--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{275BE212-F04B-4BBA-A270-D44DDBB977B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5E2599-02C5-4A43-A95C-DC51A9787DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
+    <workbookView xWindow="90" yWindow="0" windowWidth="28560" windowHeight="15585" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,12 @@
   <si>
     <t>전날 분석했던 것들을 선생님께 컨펌을 받았다. 분석을 너무 잘해줬지만 할게 너무 광범위하게 할게
 많아진다고 하셔서 당황했다. 목표를 확실히 잡고 덜어낼건 덜어내야 하는데 어디까지 덜고 어디까지 써야할지 몰라서 어려웠다. 그래도 여러 번 시도 끝에 마무리하고 오늘은 다음단계로 넘어갔다. 생각보다 할게 너무 많았다. 페르소나 자료조사를 해서 통계를 내는게 너무 어려웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오늘은 팀원이 2명이나 수업을 안나오셨다.. 이제 팀프로젝트 일주일 차인데 팀원이 다같이 합류한게 2일
+밖에 되지 않는다… 걱정이 되기 시작했다..ㅎㅎ 어찌저찌 둘이서 열심히 해서 겨우 오늘까지 할당량을
+끝낼 수는 있었다.. 이게 다 피가되고 살이 된다고 하셨으니 해봐야지..응.. 파이팅!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -583,7 +589,7 @@
   <dimension ref="F6:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:P10"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -661,20 +667,22 @@
       <c r="O10" s="13"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="8">
         <v>45373</v>
       </c>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="3"/>
+      <c r="G11" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
     </row>
     <row r="12" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F12" s="8">
@@ -950,11 +958,12 @@
       <c r="F30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="G7:P7"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G9:P9"/>
     <mergeCell ref="G10:P10"/>
+    <mergeCell ref="G11:P11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5E2599-02C5-4A43-A95C-DC51A9787DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86043B01-B388-4C38-A4F3-DA540E386903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="90" yWindow="0" windowWidth="28560" windowHeight="15585" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,6 +58,12 @@
     <t>오늘은 팀원이 2명이나 수업을 안나오셨다.. 이제 팀프로젝트 일주일 차인데 팀원이 다같이 합류한게 2일
 밖에 되지 않는다… 걱정이 되기 시작했다..ㅎㅎ 어찌저찌 둘이서 열심히 해서 겨우 오늘까지 할당량을
 끝낼 수는 있었다.. 이게 다 피가되고 살이 된다고 하셨으니 해봐야지..응.. 파이팅!!</t>
+  </si>
+  <si>
+    <t>오늘은 와이어 프레임을 만들었다. 드디어 본격적으로 틀이 나오는 것 같아서 다행이었다.
+한페이지 당 한명씩 맡아서 하는데도 점점 만들 페이지가 늘어나는게 선생님이 계속 더 늘리지말고
+줄이라고 하셨던게 이해가 가기 시작했다.
+그래도 틀이 보이니 마음은 좀 놓였다. 헤헷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -588,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
   <dimension ref="F6:P30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12:P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -684,20 +690,22 @@
       <c r="O11" s="14"/>
       <c r="P11" s="15"/>
     </row>
-    <row r="12" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="6:16" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="8">
         <v>45374</v>
       </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="3"/>
+      <c r="G12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
     </row>
     <row r="13" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F13" s="8">
@@ -958,7 +966,8 @@
       <c r="F30" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="G12:P12"/>
     <mergeCell ref="G7:P7"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G9:P9"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86043B01-B388-4C38-A4F3-DA540E386903}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCEDC04-50DE-42F1-B3E8-843A6E0E6D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="0" windowWidth="28560" windowHeight="15585" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
+    <workbookView xWindow="13110" yWindow="0" windowWidth="15540" windowHeight="15585" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -64,6 +64,12 @@
 한페이지 당 한명씩 맡아서 하는데도 점점 만들 페이지가 늘어나는게 선생님이 계속 더 늘리지말고
 줄이라고 하셨던게 이해가 가기 시작했다.
 그래도 틀이 보이니 마음은 좀 놓였다. 헤헷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>와이어 프레임을 이어서 만들었는데 하다보니 다들 열정넘치게 많이 만든 것 같다.
+다른 팀 분들은 16장 정도인데 우리 팀은 33장이 나왔다. 쌤이 집에가서 하셨냐고 여쭤보셨다ㅋㅋㅋㅋㅋ
+힘들었는데 만들고 보니까 뿌듯했다! 다들 수고 정말 많이 해따ㅠㅠ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -251,6 +257,15 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -259,15 +274,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -592,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
-  <dimension ref="F6:P30"/>
+  <dimension ref="F6:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12:P12"/>
+    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -609,35 +615,35 @@
       <c r="F7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="12"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="15"/>
     </row>
     <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="8">
         <v>45370</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="15"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
     </row>
     <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="8">
@@ -660,71 +666,73 @@
       <c r="F10" s="8">
         <v>45372</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
       <c r="P10" s="18"/>
     </row>
     <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="8">
         <v>45373</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" spans="6:16" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="12"/>
+    </row>
+    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="8">
-        <v>45374</v>
-      </c>
-      <c r="G12" s="13" t="s">
+        <v>45376</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-    </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="12"/>
+    </row>
+    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="8">
-        <v>45375</v>
-      </c>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="3"/>
+        <v>45377</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="12"/>
     </row>
     <row r="14" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F14" s="8">
-        <v>45376</v>
+        <v>45378</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -739,7 +747,7 @@
     </row>
     <row r="15" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F15" s="8">
-        <v>45377</v>
+        <v>45379</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -754,7 +762,7 @@
     </row>
     <row r="16" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F16" s="8">
-        <v>45378</v>
+        <v>45380</v>
       </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
@@ -769,7 +777,7 @@
     </row>
     <row r="17" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F17" s="8">
-        <v>45379</v>
+        <v>45381</v>
       </c>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -784,7 +792,7 @@
     </row>
     <row r="18" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F18" s="8">
-        <v>45380</v>
+        <v>45382</v>
       </c>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
@@ -799,7 +807,7 @@
     </row>
     <row r="19" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F19" s="8">
-        <v>45381</v>
+        <v>45383</v>
       </c>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -814,7 +822,7 @@
     </row>
     <row r="20" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F20" s="8">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -829,7 +837,7 @@
     </row>
     <row r="21" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F21" s="8">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -844,7 +852,7 @@
     </row>
     <row r="22" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F22" s="8">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
@@ -859,7 +867,7 @@
     </row>
     <row r="23" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F23" s="8">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -874,7 +882,7 @@
     </row>
     <row r="24" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F24" s="8">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
@@ -889,7 +897,7 @@
     </row>
     <row r="25" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F25" s="8">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -904,7 +912,7 @@
     </row>
     <row r="26" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F26" s="8">
-        <v>45388</v>
+        <v>45390</v>
       </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
@@ -917,56 +925,27 @@
       <c r="O26" s="2"/>
       <c r="P26" s="3"/>
     </row>
-    <row r="27" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F27" s="8">
-        <v>45389</v>
-      </c>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="3"/>
+    <row r="27" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F27" s="9">
+        <v>45391</v>
+      </c>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="5"/>
     </row>
     <row r="28" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F28" s="8">
-        <v>45390</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
-      <c r="P28" s="3"/>
-    </row>
-    <row r="29" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F29" s="9">
-        <v>45391</v>
-      </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-      <c r="O29" s="4"/>
-      <c r="P29" s="5"/>
-    </row>
-    <row r="30" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F30" s="6"/>
+      <c r="F28" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="G13:P13"/>
     <mergeCell ref="G12:P12"/>
     <mergeCell ref="G7:P7"/>
     <mergeCell ref="G8:P8"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\OneDrive\바탕 화면\안윤지 github\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFCEDC04-50DE-42F1-B3E8-843A6E0E6D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9D6F11-7A13-490B-9BBD-28D27EE27B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13110" yWindow="0" windowWidth="15540" windowHeight="15585" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,13 @@
     <t>와이어 프레임을 이어서 만들었는데 하다보니 다들 열정넘치게 많이 만든 것 같다.
 다른 팀 분들은 16장 정도인데 우리 팀은 33장이 나왔다. 쌤이 집에가서 하셨냐고 여쭤보셨다ㅋㅋㅋㅋㅋ
 힘들었는데 만들고 보니까 뿌듯했다! 다들 수고 정말 많이 해따ㅠㅠ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어! Prototype 디자인에 들어갔다!! 한 개의 앱을 만드는데 여러명의 의견이 나오니 오히려 의견
+취합하는게 더 어려운 것 같다ㅠㅠ 그래도 혼자한다고 생각하면 아찔하다..ㅎ
+다음주까지 완성을 해야하는데 완성이 될지 걱정이다. 그래도 최대한 열심히 해서 후회 없었으면
+좋겠다!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -226,16 +233,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -257,10 +261,10 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -275,7 +279,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -600,351 +604,246 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
   <dimension ref="F6:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14:P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="6:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F7" s="7" t="s">
+    <row r="6" spans="6:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="7" spans="6:16" ht="20.100000000000001" x14ac:dyDescent="0.7">
+      <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="15"/>
-    </row>
-    <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="8">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F8" s="7">
         <v>45370</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-    </row>
-    <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="8">
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
+    </row>
+    <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F9" s="7">
         <v>45371</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="8">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F10" s="7">
         <v>45372</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="18"/>
-    </row>
-    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="8">
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F11" s="7">
         <v>45373</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="12"/>
-    </row>
-    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="8">
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
+    </row>
+    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F12" s="7">
         <v>45376</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="G12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="12"/>
-    </row>
-    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="8">
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
+    </row>
+    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F13" s="7">
         <v>45377</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="12"/>
-    </row>
-    <row r="14" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F14" s="8">
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
+    </row>
+    <row r="14" spans="6:16" ht="115.2" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="F14" s="7">
         <v>45378</v>
       </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F15" s="8">
+      <c r="G14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
+    </row>
+    <row r="15" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F15" s="7">
         <v>45379</v>
       </c>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="3"/>
-    </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F16" s="8">
+      <c r="P15" s="2"/>
+    </row>
+    <row r="16" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F16" s="7">
         <v>45380</v>
       </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F17" s="8">
+      <c r="P16" s="2"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F17" s="7">
         <v>45381</v>
       </c>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="3"/>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F18" s="8">
+      <c r="P17" s="2"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F18" s="7">
         <v>45382</v>
       </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="3"/>
-    </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F19" s="8">
+      <c r="P18" s="2"/>
+    </row>
+    <row r="19" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F19" s="7">
         <v>45383</v>
       </c>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F20" s="8">
+      <c r="P19" s="2"/>
+    </row>
+    <row r="20" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F20" s="7">
         <v>45384</v>
       </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="3"/>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F21" s="8">
+      <c r="P20" s="2"/>
+    </row>
+    <row r="21" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F21" s="7">
         <v>45385</v>
       </c>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="3"/>
-    </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F22" s="8">
+      <c r="P21" s="2"/>
+    </row>
+    <row r="22" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F22" s="7">
         <v>45386</v>
       </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="3"/>
-    </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F23" s="8">
+      <c r="P22" s="2"/>
+    </row>
+    <row r="23" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F23" s="7">
         <v>45387</v>
       </c>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="3"/>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F24" s="8">
+      <c r="P23" s="2"/>
+    </row>
+    <row r="24" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F24" s="7">
         <v>45388</v>
       </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="3"/>
-    </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F25" s="8">
+      <c r="P24" s="2"/>
+    </row>
+    <row r="25" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F25" s="7">
         <v>45389</v>
       </c>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="3"/>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F26" s="8">
+      <c r="P25" s="2"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F26" s="7">
         <v>45390</v>
       </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="3"/>
-    </row>
-    <row r="27" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F27" s="9">
+      <c r="P26" s="2"/>
+    </row>
+    <row r="27" spans="6:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="F27" s="8">
         <v>45391</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
-      <c r="P27" s="5"/>
-    </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F28" s="6"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
+      <c r="N27" s="3"/>
+      <c r="O27" s="3"/>
+      <c r="P27" s="4"/>
+    </row>
+    <row r="28" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="F28" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="G14:P14"/>
     <mergeCell ref="G13:P13"/>
     <mergeCell ref="G12:P12"/>
     <mergeCell ref="G7:P7"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\OneDrive\바탕 화면\안윤지 github\Group\일지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9D6F11-7A13-490B-9BBD-28D27EE27B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC2F2EA-2E0A-487E-848F-5135771F66B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,6 +77,12 @@
 취합하는게 더 어려운 것 같다ㅠㅠ 그래도 혼자한다고 생각하면 아찔하다..ㅎ
 다음주까지 완성을 해야하는데 완성이 될지 걱정이다. 그래도 최대한 열심히 해서 후회 없었으면
 좋겠다!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디자인 하는게 정말 쉽지가 않다 생각보다 빨리 하겠는데? 라고 했다가 다른 팀분들 피드백 받은거 보고
+멘탈이 한번 나갔다. 아 다 뒤엎어야 할듯..?라는 말이 절로 나오더라ㅎㅎㅋㅋㅋㅋㅋ
+생각지도 못한 부분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -233,7 +239,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -269,6 +275,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -604,35 +616,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
   <dimension ref="F6:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14:P14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:P15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="7" spans="6:16" ht="20.100000000000001" x14ac:dyDescent="0.7">
+    <row r="6" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="6:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
-    </row>
-    <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="16"/>
+    </row>
+    <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="7">
         <v>45370</v>
       </c>
@@ -649,24 +661,24 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11"/>
     </row>
-    <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="7">
         <v>45371</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
-    </row>
-    <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+    </row>
+    <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F10" s="7">
         <v>45372</v>
       </c>
@@ -681,9 +693,9 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="O10" s="9"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="P10" s="19"/>
+    </row>
+    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="7">
         <v>45373</v>
       </c>
@@ -700,7 +712,7 @@
       <c r="O11" s="10"/>
       <c r="P11" s="11"/>
     </row>
-    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="7">
         <v>45376</v>
       </c>
@@ -717,7 +729,7 @@
       <c r="O12" s="10"/>
       <c r="P12" s="11"/>
     </row>
-    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="7">
         <v>45377</v>
       </c>
@@ -734,7 +746,7 @@
       <c r="O13" s="10"/>
       <c r="P13" s="11"/>
     </row>
-    <row r="14" spans="6:16" ht="115.2" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="6:16" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="7">
         <v>45378</v>
       </c>
@@ -751,79 +763,99 @@
       <c r="O14" s="10"/>
       <c r="P14" s="11"/>
     </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="15" spans="6:16" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="7">
         <v>45379</v>
       </c>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="G15" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
+    </row>
+    <row r="16" spans="6:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="7">
         <v>45380</v>
       </c>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.7">
+      <c r="G16" s="12"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="12"/>
+      <c r="P16" s="13"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F17" s="7">
         <v>45381</v>
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F18" s="7">
         <v>45382</v>
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F19" s="7">
         <v>45383</v>
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F20" s="7">
         <v>45384</v>
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F21" s="7">
         <v>45385</v>
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F22" s="7">
         <v>45386</v>
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="23" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F23" s="7">
         <v>45387</v>
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F24" s="7">
         <v>45388</v>
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F25" s="7">
         <v>45389</v>
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F26" s="7">
         <v>45390</v>
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="6:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="27" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F27" s="8">
         <v>45391</v>
       </c>
@@ -838,19 +870,21 @@
       <c r="O27" s="3"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F28" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="G14:P14"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="G12:P12"/>
+  <mergeCells count="10">
     <mergeCell ref="G7:P7"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G9:P9"/>
     <mergeCell ref="G10:P10"/>
     <mergeCell ref="G11:P11"/>
+    <mergeCell ref="G15:P15"/>
+    <mergeCell ref="G16:P16"/>
+    <mergeCell ref="G14:P14"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="G12:P12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\OneDrive\바탕 화면\안윤지 github\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAC2F2EA-2E0A-487E-848F-5135771F66B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B681A80D-A222-40C0-A925-119FE52A9199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,7 +82,14 @@
   <si>
     <t>디자인 하는게 정말 쉽지가 않다 생각보다 빨리 하겠는데? 라고 했다가 다른 팀분들 피드백 받은거 보고
 멘탈이 한번 나갔다. 아 다 뒤엎어야 할듯..?라는 말이 절로 나오더라ㅎㅎㅋㅋㅋㅋㅋ
-생각지도 못한 부분</t>
+생각지도 못한 부분까지 신경써야할게 많은 것 같다 배울 길이 아직 멀구나아~</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각자 만들던 것들은 드디어 하나로 합치기 시작했다. 의견을 모으기도 어렵구
+웹으로 보는거랑 앱으로 보는거랑 다른 것도 어렵구 다 만들어 둔걸 다시 하나하나 고치는것도
+쉽지는 않았지만 조금 씩 완성이 되어가는걸 보면 뿌듯하기도 하다. 얼른 완벽하게 해낼 우리 조의
+결과물을 보고싶다! 파이팅!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -239,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -267,6 +274,15 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -275,21 +291,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -318,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -464,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -606,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -616,246 +617,248 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
   <dimension ref="F6:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:P15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="6:16" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="6" spans="6:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
+    <row r="7" spans="6:16" ht="20.100000000000001" x14ac:dyDescent="0.7">
       <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="11"/>
+    </row>
+    <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F8" s="7">
         <v>45370</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
-    </row>
-    <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F9" s="7">
         <v>45371</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="G9" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="18"/>
-    </row>
-    <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F10" s="7">
         <v>45372</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="19"/>
-    </row>
-    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F11" s="7">
         <v>45373</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
-    </row>
-    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F12" s="7">
         <v>45376</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
-    </row>
-    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F13" s="7">
         <v>45377</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
-    </row>
-    <row r="14" spans="6:16" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="6:16" ht="115.15" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F14" s="7">
         <v>45378</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
-    </row>
-    <row r="15" spans="6:16" ht="108.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="6:16" ht="93.3" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F15" s="7">
         <v>45379</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
-    </row>
-    <row r="16" spans="6:16" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="6:16" ht="92.1" customHeight="1" x14ac:dyDescent="0.7">
       <c r="F16" s="7">
         <v>45380</v>
       </c>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="13"/>
-    </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G16" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F17" s="7">
         <v>45381</v>
       </c>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F18" s="7">
         <v>45382</v>
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F19" s="7">
         <v>45383</v>
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F20" s="7">
         <v>45384</v>
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F21" s="7">
         <v>45385</v>
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F22" s="7">
         <v>45386</v>
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F23" s="7">
         <v>45387</v>
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F24" s="7">
         <v>45388</v>
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F25" s="7">
         <v>45389</v>
       </c>
       <c r="P25" s="2"/>
     </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F26" s="7">
         <v>45390</v>
       </c>
       <c r="P26" s="2"/>
     </row>
-    <row r="27" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="6:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
       <c r="F27" s="8">
         <v>45391</v>
       </c>
@@ -870,21 +873,21 @@
       <c r="O27" s="3"/>
       <c r="P27" s="4"/>
     </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="6:16" x14ac:dyDescent="0.7">
       <c r="F28" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G15:P15"/>
+    <mergeCell ref="G16:P16"/>
+    <mergeCell ref="G14:P14"/>
+    <mergeCell ref="G13:P13"/>
+    <mergeCell ref="G12:P12"/>
     <mergeCell ref="G7:P7"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G9:P9"/>
     <mergeCell ref="G10:P10"/>
     <mergeCell ref="G11:P11"/>
-    <mergeCell ref="G15:P15"/>
-    <mergeCell ref="G16:P16"/>
-    <mergeCell ref="G14:P14"/>
-    <mergeCell ref="G13:P13"/>
-    <mergeCell ref="G12:P12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82108\OneDrive\바탕 화면\안윤지 github\Group\일지\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B681A80D-A222-40C0-A925-119FE52A9199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5654722C-B3F6-4EE6-A388-02923BAA9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="13992" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,11 @@
 웹으로 보는거랑 앱으로 보는거랑 다른 것도 어렵구 다 만들어 둔걸 다시 하나하나 고치는것도
 쉽지는 않았지만 조금 씩 완성이 되어가는걸 보면 뿌듯하기도 하다. 얼른 완벽하게 해낼 우리 조의
 결과물을 보고싶다! 파이팅!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>protype이 어느정도 틀이 잡혔다. 각자 만들었던 것들을 합쳐서 행간이나 자간 등등 새새한 것 까지 맞추고
+선생님께 여쭤 봤는데 디테일 말고는 괜찮다고 하셔서 나름 안심했다. 근데 보면 볼수록 고칠게 계속 생긴다. 그래서 잘 만든건지 어떤지 잘 모르겠다. 그래도 만들어진 프레임들을 보면 뿌듯하긴 하다. 이렇게 꼼꼼하게 열심히 해본적 있나 하는 생각도 들었따. 오늘도 수고했다!!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -319,9 +324,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +364,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +470,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +612,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -615,20 +620,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
-  <dimension ref="F6:P28"/>
+  <dimension ref="F6:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S16" sqref="S16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:P17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="6" max="6" width="11.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="6:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.75"/>
-    <row r="7" spans="6:16" ht="20.100000000000001" x14ac:dyDescent="0.7">
+    <row r="6" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="6:16" ht="20.25" x14ac:dyDescent="0.3">
       <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
@@ -645,7 +650,7 @@
       <c r="O7" s="10"/>
       <c r="P7" s="11"/>
     </row>
-    <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="7">
         <v>45370</v>
       </c>
@@ -662,7 +667,7 @@
       <c r="O8" s="13"/>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="7">
         <v>45371</v>
       </c>
@@ -679,7 +684,7 @@
       <c r="O9" s="15"/>
       <c r="P9" s="16"/>
     </row>
-    <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F10" s="7">
         <v>45372</v>
       </c>
@@ -696,7 +701,7 @@
       <c r="O10" s="12"/>
       <c r="P10" s="17"/>
     </row>
-    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="7">
         <v>45373</v>
       </c>
@@ -713,7 +718,7 @@
       <c r="O11" s="13"/>
       <c r="P11" s="14"/>
     </row>
-    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="7">
         <v>45376</v>
       </c>
@@ -730,7 +735,7 @@
       <c r="O12" s="13"/>
       <c r="P12" s="14"/>
     </row>
-    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="7">
         <v>45377</v>
       </c>
@@ -747,7 +752,7 @@
       <c r="O13" s="13"/>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="6:16" ht="115.15" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="14" spans="6:16" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="7">
         <v>45378</v>
       </c>
@@ -764,7 +769,7 @@
       <c r="O14" s="13"/>
       <c r="P14" s="14"/>
     </row>
-    <row r="15" spans="6:16" ht="93.3" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="15" spans="6:16" ht="93.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="7">
         <v>45379</v>
       </c>
@@ -781,7 +786,7 @@
       <c r="O15" s="13"/>
       <c r="P15" s="14"/>
     </row>
-    <row r="16" spans="6:16" ht="92.1" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="16" spans="6:16" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="7">
         <v>45380</v>
       </c>
@@ -798,86 +803,86 @@
       <c r="O16" s="13"/>
       <c r="P16" s="14"/>
     </row>
-    <row r="17" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="17" spans="6:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F17" s="7">
-        <v>45381</v>
-      </c>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.7">
+        <v>45383</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F18" s="7">
-        <v>45382</v>
+        <v>45384</v>
       </c>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F19" s="7">
-        <v>45383</v>
+        <v>45385</v>
       </c>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F20" s="7">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F21" s="7">
-        <v>45385</v>
+        <v>45387</v>
       </c>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F22" s="7">
-        <v>45386</v>
+        <v>45388</v>
       </c>
       <c r="P22" s="2"/>
     </row>
-    <row r="23" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="23" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F23" s="7">
-        <v>45387</v>
+        <v>45389</v>
       </c>
       <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.7">
+    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F24" s="7">
-        <v>45388</v>
+        <v>45390</v>
       </c>
       <c r="P24" s="2"/>
     </row>
-    <row r="25" spans="6:16" x14ac:dyDescent="0.7">
-      <c r="F25" s="7">
-        <v>45389</v>
-      </c>
-      <c r="P25" s="2"/>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.7">
-      <c r="F26" s="7">
-        <v>45390</v>
-      </c>
-      <c r="P26" s="2"/>
-    </row>
-    <row r="27" spans="6:16" ht="16.8" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="F27" s="8">
+    <row r="25" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F25" s="8">
         <v>45391</v>
       </c>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="4"/>
-    </row>
-    <row r="28" spans="6:16" x14ac:dyDescent="0.7">
-      <c r="F28" s="5"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
+      <c r="O25" s="3"/>
+      <c r="P25" s="4"/>
+    </row>
+    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="G17:P17"/>
     <mergeCell ref="G15:P15"/>
     <mergeCell ref="G16:P16"/>
     <mergeCell ref="G14:P14"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5654722C-B3F6-4EE6-A388-02923BAA9DB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D24CA2-298F-4A90-A1F4-6D397450A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -93,8 +93,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>protype이 어느정도 틀이 잡혔다. 각자 만들었던 것들을 합쳐서 행간이나 자간 등등 새새한 것 까지 맞추고
+    <t>prototype이 어느정도 틀이 잡혔다. 각자 만들었던 것들을 합쳐서 행간이나 자간 등등 새새한 것 까지 맞추고
 선생님께 여쭤 봤는데 디테일 말고는 괜찮다고 하셔서 나름 안심했다. 근데 보면 볼수록 고칠게 계속 생긴다. 그래서 잘 만든건지 어떤지 잘 모르겠다. 그래도 만들어진 프레임들을 보면 뿌듯하긴 하다. 이렇게 꼼꼼하게 열심히 해본적 있나 하는 생각도 들었따. 오늘도 수고했다!!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prototype이 완성되었따!!! 다른 팀들에 비해 색상도 디자인도 단조로운 기분이라 약간 찜찜하긴 한데
+우리의 페르소나에 맞고 우리만의 느낌이 있으니 괜찮겠지?? 근데 구현만큼은 하고 싶지않다.
+기본 30장을 해내야하는데…...no…...</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -279,6 +285,15 @@
     <xf numFmtId="176" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -287,15 +302,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -622,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
   <dimension ref="F6:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:P17"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -637,35 +643,35 @@
       <c r="F7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="11"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="14"/>
     </row>
     <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F8" s="7">
         <v>45370</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="14"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="11"/>
     </row>
     <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F9" s="7">
@@ -688,143 +694,154 @@
       <c r="F10" s="7">
         <v>45372</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
       <c r="P10" s="17"/>
     </row>
     <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F11" s="7">
         <v>45373</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="14"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="11"/>
     </row>
     <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F12" s="7">
         <v>45376</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="14"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="11"/>
     </row>
     <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F13" s="7">
         <v>45377</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="14"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="11"/>
     </row>
     <row r="14" spans="6:16" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F14" s="7">
         <v>45378</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="14"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="11"/>
     </row>
     <row r="15" spans="6:16" ht="93.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F15" s="7">
         <v>45379</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="14"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="11"/>
     </row>
     <row r="16" spans="6:16" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F16" s="7">
         <v>45380</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="14"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="6:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F17" s="7">
         <v>45383</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" s="14"/>
-    </row>
-    <row r="18" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="11"/>
+    </row>
+    <row r="18" spans="6:16" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F18" s="7">
         <v>45384</v>
       </c>
-      <c r="P18" s="2"/>
+      <c r="G18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="11"/>
     </row>
     <row r="19" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F19" s="7">
@@ -881,18 +898,19 @@
       <c r="F26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="G17:P17"/>
-    <mergeCell ref="G15:P15"/>
-    <mergeCell ref="G16:P16"/>
-    <mergeCell ref="G14:P14"/>
-    <mergeCell ref="G13:P13"/>
+  <mergeCells count="12">
+    <mergeCell ref="G18:P18"/>
     <mergeCell ref="G12:P12"/>
     <mergeCell ref="G7:P7"/>
     <mergeCell ref="G8:P8"/>
     <mergeCell ref="G9:P9"/>
     <mergeCell ref="G10:P10"/>
     <mergeCell ref="G11:P11"/>
+    <mergeCell ref="G17:P17"/>
+    <mergeCell ref="G15:P15"/>
+    <mergeCell ref="G16:P16"/>
+    <mergeCell ref="G14:P14"/>
+    <mergeCell ref="G13:P13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D24CA2-298F-4A90-A1F4-6D397450A50B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA754A2-79B3-4E7B-8DD0-9FCA4E8EAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,13 @@
     <t>prototype이 완성되었따!!! 다른 팀들에 비해 색상도 디자인도 단조로운 기분이라 약간 찜찜하긴 한데
 우리의 페르소나에 맞고 우리만의 느낌이 있으니 괜찮겠지?? 근데 구현만큼은 하고 싶지않다.
 기본 30장을 해내야하는데…...no…...</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이제 발표를 앞두고 발표 준비를 시작해따! Ppt를 오랜만에 해서 그런지 헷갈렸다…ㅎㅎ
+그래두 다들 합심해서 하니까 금방 잘 끝난 것 같다!! 이제 대본만 쓰고 발표할 일만 남았다!!!
+우리 조원들이 자주 아프다ㅠㅡㅠ 부디 다들 건강했으면 좋겠다 우리 조 이름을 건강하조로 할걸 그랬나..
+정말 고생많았구 조금만 더 힘내자!!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
   <dimension ref="F6:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15:P15"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -843,11 +850,22 @@
       <c r="O18" s="10"/>
       <c r="P18" s="11"/>
     </row>
-    <row r="19" spans="6:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="6:16" ht="102" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F19" s="7">
         <v>45385</v>
       </c>
-      <c r="P19" s="2"/>
+      <c r="G19" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="11"/>
     </row>
     <row r="20" spans="6:16" x14ac:dyDescent="0.3">
       <c r="F20" s="7">
@@ -898,7 +916,8 @@
       <c r="F26" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="G19:P19"/>
     <mergeCell ref="G18:P18"/>
     <mergeCell ref="G12:P12"/>
     <mergeCell ref="G7:P7"/>

--- a/일지/1. 팀별작업 일지.xlsx
+++ b/일지/1. 팀별작업 일지.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ayj\Group\일지\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA754A2-79B3-4E7B-8DD0-9FCA4E8EAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C1960E2-E566-4371-B186-AF18B42E9341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{96DD4F85-600D-40D4-BE17-2662AC48BB09}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>날짜</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,21 @@
 그래두 다들 합심해서 하니까 금방 잘 끝난 것 같다!! 이제 대본만 쓰고 발표할 일만 남았다!!!
 우리 조원들이 자주 아프다ㅠㅡㅠ 부디 다들 건강했으면 좋겠다 우리 조 이름을 건강하조로 할걸 그랬나..
 정말 고생많았구 조금만 더 힘내자!!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표 대본만 쓰면 된다!! 근데 발표대본을 너무 만만하게 봤나보다 생각보다 시간이 엄청 많이 걸려서
+다들 당황했다. 피피티도 수정할 부분이 생기고 피피티를 수정하면 대본을 또 수정해야하고 무한 굴레에
+빠진 것 같았다, 그래도 힘을 합쳐서 하다보면 끝이 날거야.. 조금만 더 힘내서 화이팅해보자! 내일이면 끝이난다! 발표를 맡아서 벌써부터 부담이 쌓고 떨리지만 잘 할거라 믿는다 아자아자!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>드디어 발표 당일! 오늘은 오전부터 발표를 준비할 시간을 주셨다 덕분에 연습할 시간을 가질 수 있어서 다행이었지만 아침부터 말을 계속하니 목이 아프고 어질어질하더라 그래도 팀원들 도움으로
+발표를 잘 마칠 수 있었다! 앞에 나와서 말을 하다보니 말이빨라져서 시간이 아주 조금 부족했던 것같아
+많이 많이 아쉬웠다, 그래도 다들 잘했다고 해주시고 응원해주셔서 감사했다 앞으로 또 다른
+발표할 기회가 생기면 조금더 차분히 해야지! 다들 너무 너무 고생 많았고 첫번째 팀프로젝트라 
+어려운 부분도 많았지만 헤쳐나가면서 그만큼 또 많이 배울 수 있었다고 생각한다. 정말 열심히 했기 때문에
+후회는 많이 없다! 다들 감사했고 고생 많았어요!! 나 자신도 수고했어! 앞으로도 더 열심히 해보자!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,14 +279,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
@@ -633,10 +645,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D1A7C8-06ED-48F7-A8F5-88506746F865}">
-  <dimension ref="F6:P26"/>
+  <dimension ref="F6:P23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -647,276 +659,282 @@
   <sheetData>
     <row r="6" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="6:16" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="13"/>
     </row>
     <row r="8" spans="6:16" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F8" s="7">
+      <c r="F8" s="6">
         <v>45370</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="11"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="10"/>
     </row>
     <row r="9" spans="6:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F9" s="7">
+      <c r="F9" s="6">
         <v>45371</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="16"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
     </row>
     <row r="10" spans="6:16" ht="123" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F10" s="7">
+      <c r="F10" s="6">
         <v>45372</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="17"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="16"/>
     </row>
     <row r="11" spans="6:16" ht="100.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F11" s="7">
+      <c r="F11" s="6">
         <v>45373</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="11"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="10"/>
     </row>
     <row r="12" spans="6:16" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="7">
+      <c r="F12" s="6">
         <v>45376</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="10"/>
     </row>
     <row r="13" spans="6:16" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F13" s="7">
+      <c r="F13" s="6">
         <v>45377</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="11"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="10"/>
     </row>
     <row r="14" spans="6:16" ht="115.15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F14" s="7">
+      <c r="F14" s="6">
         <v>45378</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="G14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="10"/>
     </row>
     <row r="15" spans="6:16" ht="93.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F15" s="7">
+      <c r="F15" s="6">
         <v>45379</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="11"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="10"/>
     </row>
     <row r="16" spans="6:16" ht="92.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="7">
+      <c r="F16" s="6">
         <v>45380</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="11"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="10"/>
     </row>
     <row r="17" spans="6:16" ht="117" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F17" s="7">
+      <c r="F17" s="6">
         <v>45383</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="11"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="10"/>
     </row>
     <row r="18" spans="6:16" ht="83.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F18" s="7">
+      <c r="F18" s="6">
         <v>45384</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
-      <c r="L18" s="10"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="11"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="9"/>
+      <c r="M18" s="9"/>
+      <c r="N18" s="9"/>
+      <c r="O18" s="9"/>
+      <c r="P18" s="10"/>
     </row>
     <row r="19" spans="6:16" ht="102" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F19" s="7">
+      <c r="F19" s="6">
         <v>45385</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="11"/>
-    </row>
-    <row r="20" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F20" s="7">
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="10"/>
+    </row>
+    <row r="20" spans="6:16" ht="77.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="6">
         <v>45386</v>
       </c>
-      <c r="P20" s="2"/>
-    </row>
-    <row r="21" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F21" s="7">
+      <c r="G20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
+      <c r="P20" s="10"/>
+    </row>
+    <row r="21" spans="6:16" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="6">
         <v>45387</v>
       </c>
-      <c r="P21" s="2"/>
-    </row>
-    <row r="22" spans="6:16" x14ac:dyDescent="0.3">
+      <c r="G21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
+      <c r="P21" s="10"/>
+    </row>
+    <row r="22" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F22" s="7">
-        <v>45388</v>
-      </c>
-      <c r="P22" s="2"/>
+        <v>45391</v>
+      </c>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="3"/>
     </row>
     <row r="23" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F23" s="7">
-        <v>45389</v>
-      </c>
-      <c r="P23" s="2"/>
-    </row>
-    <row r="24" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F24" s="7">
-        <v>45390</v>
-      </c>
-      <c r="P24" s="2"/>
-    </row>
-    <row r="25" spans="6:16" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F25" s="8">
-        <v>45391</v>
-      </c>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="4"/>
-    </row>
-    <row r="26" spans="6:16" x14ac:dyDescent="0.3">
-      <c r="F26" s="5"/>
+      <c r="F23" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="G20:P20"/>
+    <mergeCell ref="G21:P21"/>
     <mergeCell ref="G19:P19"/>
     <mergeCell ref="G18:P18"/>
     <mergeCell ref="G12:P12"/>
